--- a/data/trans_orig/P17-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P17-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>12310</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6317</v>
+        <v>6433</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22132</v>
+        <v>23122</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02117053189579773</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01086379097371257</v>
+        <v>0.01106419617508491</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03806319389134798</v>
+        <v>0.03976576591357838</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -765,19 +765,19 @@
         <v>11388</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5793</v>
+        <v>5419</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20561</v>
+        <v>20464</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01234676454497807</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006281085393715182</v>
+        <v>0.00587563383362366</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.022292484098254</v>
+        <v>0.02218705672090642</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -786,19 +786,19 @@
         <v>23697</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14919</v>
+        <v>14353</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>35386</v>
+        <v>35096</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01575855530258205</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009920926867666444</v>
+        <v>0.009544586619801284</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02353103839328123</v>
+        <v>0.02333849224412549</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>149917</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>128629</v>
+        <v>131018</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>171680</v>
+        <v>174511</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2578313009747846</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2212203295780655</v>
+        <v>0.2253282455883515</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2952605508519899</v>
+        <v>0.3001284114805674</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>84</v>
@@ -836,19 +836,19 @@
         <v>89003</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>71624</v>
+        <v>71701</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>107043</v>
+        <v>109571</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09649795272775373</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07765559295523795</v>
+        <v>0.07773910486037991</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1160567845086263</v>
+        <v>0.1187980592057085</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>227</v>
@@ -857,19 +857,19 @@
         <v>238920</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>211292</v>
+        <v>209270</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>264803</v>
+        <v>267677</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1588789748646749</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1405068036675137</v>
+        <v>0.1391623804882636</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1760910609654648</v>
+        <v>0.1780023858795537</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>67722</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>53444</v>
+        <v>53350</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>85240</v>
+        <v>85593</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1164700695416752</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09191464229961244</v>
+        <v>0.09175317435654597</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1465988501899695</v>
+        <v>0.1472045261206873</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>142</v>
@@ -907,19 +907,19 @@
         <v>146482</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>127518</v>
+        <v>125058</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>171631</v>
+        <v>171368</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1588167609832354</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1382554252215081</v>
+        <v>0.1355889229816998</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1860839429901274</v>
+        <v>0.1857987428204402</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>208</v>
@@ -928,19 +928,19 @@
         <v>214204</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>188429</v>
+        <v>188373</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>240901</v>
+        <v>244889</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1424430234705389</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1253032214294588</v>
+        <v>0.1252661571362492</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.160196076508807</v>
+        <v>0.1628480874248969</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>41111</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30013</v>
+        <v>29178</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>55803</v>
+        <v>55216</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07070406720127681</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05161748869036979</v>
+        <v>0.05018179543249359</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09597212517937209</v>
+        <v>0.09496126063914373</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -978,19 +978,19 @@
         <v>67374</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>52240</v>
+        <v>52155</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>85437</v>
+        <v>85153</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07304742157296423</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05663873196663878</v>
+        <v>0.05654715383208857</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09263193065275381</v>
+        <v>0.09232378941462699</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -999,19 +999,19 @@
         <v>108485</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>90193</v>
+        <v>88656</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>132068</v>
+        <v>132268</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07214134206415088</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05997746816330597</v>
+        <v>0.05895539500242506</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08782362542172878</v>
+        <v>0.08795638171775401</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>310394</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>286548</v>
+        <v>285271</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>334698</v>
+        <v>332526</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5338240303864656</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4928132504525002</v>
+        <v>0.4906170020765228</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5756238969833045</v>
+        <v>0.5718885503032011</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>585</v>
@@ -1049,19 +1049,19 @@
         <v>608086</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>579925</v>
+        <v>580734</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>633281</v>
+        <v>638064</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6592911001710686</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6287586910315583</v>
+        <v>0.6296355046130415</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6866076214802378</v>
+        <v>0.6917939137880328</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>897</v>
@@ -1070,19 +1070,19 @@
         <v>918480</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>881634</v>
+        <v>879613</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>957055</v>
+        <v>957124</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6107781042980532</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5862762772942759</v>
+        <v>0.5849321186725097</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6364302875813519</v>
+        <v>0.6364764567710737</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>20148</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11818</v>
+        <v>12171</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31482</v>
+        <v>32576</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01877799323084273</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01101461619203355</v>
+        <v>0.01134338139810944</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02934110684428948</v>
+        <v>0.0303612433074556</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1195,19 +1195,19 @@
         <v>11366</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5672</v>
+        <v>5837</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20942</v>
+        <v>20976</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01075765851412425</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005367922003371691</v>
+        <v>0.005524134755171331</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01982098638510338</v>
+        <v>0.01985292528128514</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1216,19 +1216,19 @@
         <v>31514</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20965</v>
+        <v>21715</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>45095</v>
+        <v>45787</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01479870803335929</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.009844866574753452</v>
+        <v>0.01019700518740854</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02117613995919408</v>
+        <v>0.02150110266198371</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>255696</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>226507</v>
+        <v>229277</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>283813</v>
+        <v>288894</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2383085306484547</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2111047011596092</v>
+        <v>0.2136864112888598</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2645136637735841</v>
+        <v>0.2692487538572146</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>131</v>
@@ -1266,19 +1266,19 @@
         <v>133959</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>114475</v>
+        <v>113648</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>156372</v>
+        <v>159074</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1267875824179258</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1083463341779502</v>
+        <v>0.1075643669358345</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1480007996423162</v>
+        <v>0.1505576868011589</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>380</v>
@@ -1287,19 +1287,19 @@
         <v>389655</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>358393</v>
+        <v>355893</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>427066</v>
+        <v>424630</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1829774660261754</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1682970567391013</v>
+        <v>0.1671230350392887</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2005451432343844</v>
+        <v>0.1994014813310616</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>128941</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>108902</v>
+        <v>110583</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>152162</v>
+        <v>151491</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1201728877049582</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.101496229214539</v>
+        <v>0.103063603499238</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1418145344305163</v>
+        <v>0.1411895151390892</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>237</v>
@@ -1337,19 +1337,19 @@
         <v>244047</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>218009</v>
+        <v>219798</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>271225</v>
+        <v>274933</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.230982051173701</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2063385333517864</v>
+        <v>0.2080316262294662</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2567047812128204</v>
+        <v>0.2602145290593373</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>362</v>
@@ -1358,19 +1358,19 @@
         <v>372988</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>340089</v>
+        <v>341068</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>409234</v>
+        <v>408480</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1751508006613269</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1597020175534566</v>
+        <v>0.1601615327521097</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1921715824905562</v>
+        <v>0.1918174117599679</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>106283</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>88101</v>
+        <v>84911</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>126359</v>
+        <v>124320</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09905546638158402</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08210992043001072</v>
+        <v>0.07913733802091623</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.117766471459309</v>
+        <v>0.1158665757699487</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>115</v>
@@ -1408,19 +1408,19 @@
         <v>114976</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>96926</v>
+        <v>95898</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>137878</v>
+        <v>134455</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1088209604373278</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09173723868605116</v>
+        <v>0.0907646096852575</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1304965027379278</v>
+        <v>0.1272572767393194</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>221</v>
@@ -1429,19 +1429,19 @@
         <v>221259</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>195392</v>
+        <v>195709</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>250757</v>
+        <v>251364</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1039006115425622</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09175399397500769</v>
+        <v>0.09190276875476469</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1177524887980107</v>
+        <v>0.118037861739768</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>561894</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>528297</v>
+        <v>530206</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>593743</v>
+        <v>594157</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5236851220341603</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.492372743331513</v>
+        <v>0.4941518658454824</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5533683318878634</v>
+        <v>0.553754020586779</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>534</v>
@@ -1479,19 +1479,19 @@
         <v>552214</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>519908</v>
+        <v>521481</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>583587</v>
+        <v>586633</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5226517474569211</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4920754853900977</v>
+        <v>0.4935636559999084</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5523449727687072</v>
+        <v>0.5552281080893693</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1088</v>
@@ -1500,19 +1500,19 @@
         <v>1114108</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1066428</v>
+        <v>1063275</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1160950</v>
+        <v>1160685</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5231724137365762</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5007823212890155</v>
+        <v>0.4993017186390274</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5451689461101419</v>
+        <v>0.5450445501925287</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>14250</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7932</v>
+        <v>8268</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23675</v>
+        <v>23060</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01270531016985643</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00707236746817254</v>
+        <v>0.007371584436397861</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02110859451779288</v>
+        <v>0.02056027187344237</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -1625,19 +1625,19 @@
         <v>14816</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8204</v>
+        <v>7647</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25754</v>
+        <v>24025</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0149066972102194</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008254455825793847</v>
+        <v>0.007693496988767153</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02591124089120055</v>
+        <v>0.0241714098705654</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1646,19 +1646,19 @@
         <v>29067</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19155</v>
+        <v>19338</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>43324</v>
+        <v>43006</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01373958609662302</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009054252003961745</v>
+        <v>0.009141171625593384</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02047917943949225</v>
+        <v>0.02032868028244626</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>265148</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>238494</v>
+        <v>237460</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>295464</v>
+        <v>294248</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2364029815687768</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2126382805249366</v>
+        <v>0.2117167945429119</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2634323998420064</v>
+        <v>0.2623482629310066</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>137</v>
@@ -1696,19 +1696,19 @@
         <v>136123</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>115010</v>
+        <v>114448</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>156844</v>
+        <v>158442</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1369532157924435</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1157114070815362</v>
+        <v>0.115145860309048</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.157800693082529</v>
+        <v>0.1594080271681176</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>397</v>
@@ -1717,19 +1717,19 @@
         <v>401271</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>366530</v>
+        <v>365680</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>438441</v>
+        <v>437177</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1896785770096956</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1732563530569241</v>
+        <v>0.1728546996461424</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2072485971421417</v>
+        <v>0.2066508864758562</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>152199</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>129623</v>
+        <v>131530</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>176707</v>
+        <v>175120</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1356984138834978</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1155703297748655</v>
+        <v>0.1172705520158783</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1575497278738751</v>
+        <v>0.1561347357312741</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>224</v>
@@ -1767,19 +1767,19 @@
         <v>225560</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>201415</v>
+        <v>202038</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>252151</v>
+        <v>253604</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.226934894966856</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2026425805215408</v>
+        <v>0.2032695790538176</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2536883103358312</v>
+        <v>0.2551497093020417</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>376</v>
@@ -1788,19 +1788,19 @@
         <v>377758</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>343289</v>
+        <v>343058</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>416051</v>
+        <v>415336</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1785639774110518</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1622706205389515</v>
+        <v>0.1621613255857771</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1966647721516784</v>
+        <v>0.1963266807155203</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>140723</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>118820</v>
+        <v>118875</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>164930</v>
+        <v>163510</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1254670398102202</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1059386363664892</v>
+        <v>0.1059874471397195</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1470494179268982</v>
+        <v>0.1457833080797043</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -1838,19 +1838,19 @@
         <v>96730</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>79113</v>
+        <v>78704</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>117877</v>
+        <v>116143</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09731978937362488</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07959505597650265</v>
+        <v>0.07918345694277475</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.118595478306466</v>
+        <v>0.1168509303873373</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>229</v>
@@ -1859,19 +1859,19 @@
         <v>237453</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>208821</v>
+        <v>209756</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>270410</v>
+        <v>269787</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1122426394674068</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09870821320466651</v>
+        <v>0.09915033243563161</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1278211760305201</v>
+        <v>0.127526645163993</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>549274</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>513899</v>
+        <v>517431</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>582205</v>
+        <v>582648</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4897262545676488</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4581858828121558</v>
+        <v>0.4613352884988832</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5190873167948419</v>
+        <v>0.519481767725721</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>515</v>
@@ -1909,19 +1909,19 @@
         <v>520711</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>488261</v>
+        <v>490888</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>551359</v>
+        <v>555465</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5238854026568562</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4912380157603098</v>
+        <v>0.4938813793843519</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5547201403028059</v>
+        <v>0.5588517451811779</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1057</v>
@@ -1930,19 +1930,19 @@
         <v>1069985</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1021662</v>
+        <v>1025229</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1115641</v>
+        <v>1122975</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5057752200152227</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4829335168387514</v>
+        <v>0.4846193324116963</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5273567773198097</v>
+        <v>0.5308235369187386</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>15583</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8761</v>
+        <v>8819</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>24284</v>
+        <v>25100</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03498568169207046</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01966895449586971</v>
+        <v>0.01979872238489874</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05452173793401473</v>
+        <v>0.05635372736147209</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -2055,19 +2055,19 @@
         <v>8753</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3858</v>
+        <v>4092</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>15771</v>
+        <v>15631</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02572606050593268</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01134074559421403</v>
+        <v>0.01202788030432671</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04635594733562822</v>
+        <v>0.04594197469676651</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>24</v>
@@ -2076,19 +2076,19 @@
         <v>24336</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>16605</v>
+        <v>15415</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>36670</v>
+        <v>34256</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03097572804279219</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02113623951257251</v>
+        <v>0.01962113172902671</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04667608642315236</v>
+        <v>0.04360257715990561</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>126998</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>109141</v>
+        <v>108910</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>147946</v>
+        <v>148264</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2851260942646096</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2450365329680328</v>
+        <v>0.2445159379723975</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3321581032771715</v>
+        <v>0.3328724290871583</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>49</v>
@@ -2126,19 +2126,19 @@
         <v>50359</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>38971</v>
+        <v>37130</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>65731</v>
+        <v>65037</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.148017684146192</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.114545278737248</v>
+        <v>0.1091325018375869</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.193197263631477</v>
+        <v>0.1911574021121151</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>169</v>
@@ -2147,19 +2147,19 @@
         <v>177357</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>152518</v>
+        <v>155429</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>201599</v>
+        <v>202333</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2257501912498974</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1941335137038755</v>
+        <v>0.1978386106513356</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2566062575518895</v>
+        <v>0.2575407683556668</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>54488</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>40902</v>
+        <v>41837</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>69220</v>
+        <v>70237</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1223336126128294</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0918293341937783</v>
+        <v>0.09392860028404826</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1554084199109017</v>
+        <v>0.1576915827933444</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>81</v>
@@ -2197,19 +2197,19 @@
         <v>80736</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>65289</v>
+        <v>66882</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>95700</v>
+        <v>97016</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2373025790777719</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1919000717924117</v>
+        <v>0.1965830240038753</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2812846184974587</v>
+        <v>0.2851529255080573</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>135</v>
@@ -2218,19 +2218,19 @@
         <v>135225</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>114335</v>
+        <v>114872</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>157125</v>
+        <v>156382</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1721218509610702</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1455320758142733</v>
+        <v>0.1462159085399661</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1999976985012289</v>
+        <v>0.1990515068187241</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>69530</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>54646</v>
+        <v>54225</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>86598</v>
+        <v>86300</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1561040410739946</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1226871832853168</v>
+        <v>0.1217425417963327</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1944234215067121</v>
+        <v>0.1937535680732289</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>48</v>
@@ -2268,19 +2268,19 @@
         <v>48221</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36751</v>
+        <v>35338</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>61759</v>
+        <v>62661</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1417323953880789</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1080182660605694</v>
+        <v>0.1038679959214524</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1815254441380566</v>
+        <v>0.1841742278227486</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>116</v>
@@ -2289,19 +2289,19 @@
         <v>117751</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>98758</v>
+        <v>99849</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>138404</v>
+        <v>139933</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1498802839779001</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1257047336305107</v>
+        <v>0.1270931912485612</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1761683907241248</v>
+        <v>0.1781149519054886</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>178810</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>157418</v>
+        <v>157090</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>201310</v>
+        <v>199468</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.401450570356496</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3534226532933629</v>
+        <v>0.3526880842284108</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.451966458134255</v>
+        <v>0.4478311692869951</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>151</v>
@@ -2339,19 +2339,19 @@
         <v>152156</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>133386</v>
+        <v>133439</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>169220</v>
+        <v>170883</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4472212808820245</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3920524513952223</v>
+        <v>0.3922088271494809</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4973768487896896</v>
+        <v>0.5022658118156409</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>328</v>
@@ -2360,19 +2360,19 @@
         <v>330966</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>302514</v>
+        <v>301583</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>358906</v>
+        <v>357063</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4212719457683402</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.385056977149239</v>
+        <v>0.3838721599517051</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4568360566070774</v>
+        <v>0.4544903522470776</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>62291</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>47759</v>
+        <v>48292</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>79220</v>
+        <v>81999</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01933647768707327</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01482533888215879</v>
+        <v>0.01499106240451534</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02459155652260403</v>
+        <v>0.02545420963068619</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>41</v>
@@ -2485,19 +2485,19 @@
         <v>46323</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>33218</v>
+        <v>33754</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>61884</v>
+        <v>62753</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01398193065288845</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.01002626854853023</v>
+        <v>0.01018808044552342</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01867892865372612</v>
+        <v>0.01894107872644958</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>98</v>
@@ -2506,19 +2506,19 @@
         <v>108614</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>88612</v>
+        <v>89929</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>131768</v>
+        <v>131944</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01662165677519081</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0135607245324763</v>
+        <v>0.01376216231627136</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02016511315644231</v>
+        <v>0.02019204803113956</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>797759</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>750884</v>
+        <v>750680</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>845137</v>
+        <v>851343</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2476420853744157</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2330910870954021</v>
+        <v>0.2330276721892924</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2623494710078772</v>
+        <v>0.2642759370109944</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>401</v>
@@ -2556,19 +2556,19 @@
         <v>409445</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>375562</v>
+        <v>373371</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>451732</v>
+        <v>450155</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1235850799964914</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1133579363328221</v>
+        <v>0.112696627322298</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1363488145609797</v>
+        <v>0.1358727716688254</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1173</v>
@@ -2577,19 +2577,19 @@
         <v>1207203</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1148036</v>
+        <v>1143572</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1267672</v>
+        <v>1268076</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1847436645901117</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1756889677587626</v>
+        <v>0.1750059209025824</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1939974237381063</v>
+        <v>0.1940593340695902</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>403350</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>366861</v>
+        <v>366883</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>441678</v>
+        <v>444036</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1252087874344557</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1138817747326753</v>
+        <v>0.1138886603789803</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1371065602877692</v>
+        <v>0.137838674125986</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>684</v>
@@ -2627,19 +2627,19 @@
         <v>696825</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>651350</v>
+        <v>651781</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>746332</v>
+        <v>743935</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.210326628819375</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1966008422522037</v>
+        <v>0.1967306859055601</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2252697842605327</v>
+        <v>0.2245462313867351</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1081</v>
@@ -2648,19 +2648,19 @@
         <v>1100175</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1039945</v>
+        <v>1048125</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1156739</v>
+        <v>1162156</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1683645752706257</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.159147411719877</v>
+        <v>0.1603991994708163</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1770208634914379</v>
+        <v>0.17784982475889</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>357647</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>325726</v>
+        <v>321120</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>394899</v>
+        <v>392119</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1110216362658411</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1011127273995941</v>
+        <v>0.09968292573194699</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1225854167978065</v>
+        <v>0.121722440892398</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>321</v>
@@ -2698,19 +2698,19 @@
         <v>327301</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>295784</v>
+        <v>297029</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>363037</v>
+        <v>363422</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09879117435792244</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08927831028903759</v>
+        <v>0.08965383665558281</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1095774712089148</v>
+        <v>0.1096936142222676</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>669</v>
@@ -2719,19 +2719,19 @@
         <v>684948</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>639812</v>
+        <v>639383</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>741557</v>
+        <v>738001</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.104820642318525</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09791320666466612</v>
+        <v>0.09784752562932207</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1134836901860594</v>
+        <v>0.1129395593208546</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>1600372</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1543438</v>
+        <v>1539209</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1654959</v>
+        <v>1655715</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4967910132382142</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4791176645003594</v>
+        <v>0.4778047855593149</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5137360396028761</v>
+        <v>0.5139709517203296</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1785</v>
@@ -2769,19 +2769,19 @@
         <v>1833166</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1776483</v>
+        <v>1771073</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>1890496</v>
+        <v>1887156</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5533151861733226</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5362060233619977</v>
+        <v>0.534573041577001</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5706191916319701</v>
+        <v>0.5696110263993852</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3370</v>
@@ -2790,19 +2790,19 @@
         <v>3433538</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3357876</v>
+        <v>3361047</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>3515407</v>
+        <v>3522040</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5254494610455468</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5138706328965206</v>
+        <v>0.5143557963583411</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5379781935256235</v>
+        <v>0.5389933100800087</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>12661</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6466</v>
+        <v>6886</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22655</v>
+        <v>21992</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01214072448648074</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006200179558478802</v>
+        <v>0.006602807292771134</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02172356105119927</v>
+        <v>0.02108713494630659</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -3155,19 +3155,19 @@
         <v>11039</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5117</v>
+        <v>5323</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20857</v>
+        <v>21243</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.009865835459436069</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00457368019186109</v>
+        <v>0.004757136072597112</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01864141902899908</v>
+        <v>0.01898653377207084</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -3176,19 +3176,19 @@
         <v>23700</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15171</v>
+        <v>14537</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36340</v>
+        <v>36571</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01096330402257973</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007017974974490651</v>
+        <v>0.0067245328135658</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01681047728431749</v>
+        <v>0.0169169727616438</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>187632</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>159503</v>
+        <v>160759</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>212098</v>
+        <v>213766</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1799143616215274</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1529430567920934</v>
+        <v>0.1541469515558208</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2033748649425501</v>
+        <v>0.2049738215123509</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>73</v>
@@ -3226,19 +3226,19 @@
         <v>79714</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>64365</v>
+        <v>63217</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>98325</v>
+        <v>99131</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07124472603632871</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05752648661709484</v>
+        <v>0.05650087963321673</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08787871722156061</v>
+        <v>0.08859964361817586</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>253</v>
@@ -3247,19 +3247,19 @@
         <v>267345</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>239292</v>
+        <v>237086</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>298561</v>
+        <v>300410</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1236699245428103</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1106928905268122</v>
+        <v>0.1096726148427871</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1381098675017114</v>
+        <v>0.1389654358963797</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>149958</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>129372</v>
+        <v>127877</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>175859</v>
+        <v>176497</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1437906223517689</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1240511358532265</v>
+        <v>0.1226177730174914</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.16862602814293</v>
+        <v>0.1692380839439892</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>205</v>
@@ -3297,19 +3297,19 @@
         <v>218223</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>192772</v>
+        <v>192023</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>248046</v>
+        <v>247288</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1950386697354651</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1722913945873935</v>
+        <v>0.1716222049011753</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2216930750809695</v>
+        <v>0.2210158317662403</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>346</v>
@@ -3318,19 +3318,19 @@
         <v>368181</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>335506</v>
+        <v>332072</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>403726</v>
+        <v>410149</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1703152127854927</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1552001848913779</v>
+        <v>0.1536117864632244</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1867577594987431</v>
+        <v>0.1897289229504888</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>116827</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>98282</v>
+        <v>98264</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>139448</v>
+        <v>138506</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1120214591458729</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09423957216824329</v>
+        <v>0.09422272339196547</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1337124582448968</v>
+        <v>0.1328088893023552</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>110</v>
@@ -3368,19 +3368,19 @@
         <v>121764</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>100990</v>
+        <v>102176</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>145786</v>
+        <v>143480</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1088278177750458</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09026094585130678</v>
+        <v>0.09132098980389455</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1302977875881455</v>
+        <v>0.1282360882602159</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>221</v>
@@ -3389,19 +3389,19 @@
         <v>238591</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>210169</v>
+        <v>210395</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>268900</v>
+        <v>272168</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.110368517547549</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.09722084630812462</v>
+        <v>0.09732567047636004</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1243889265398019</v>
+        <v>0.1259008597293858</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>575816</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>543568</v>
+        <v>542527</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>608340</v>
+        <v>609916</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5521328323943501</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.521211576292619</v>
+        <v>0.5202131844045793</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5833192472388224</v>
+        <v>0.5848299367384259</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>633</v>
@@ -3439,19 +3439,19 @@
         <v>688131</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>651615</v>
+        <v>653217</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>720360</v>
+        <v>720696</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6150229509937244</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.582387124420905</v>
+        <v>0.5838188246771885</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6438281231163838</v>
+        <v>0.6441280438198782</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1167</v>
@@ -3460,19 +3460,19 @@
         <v>1263947</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1219028</v>
+        <v>1211974</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1309050</v>
+        <v>1311001</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5846830411015683</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5639041994877839</v>
+        <v>0.5606412740432435</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6055471918592634</v>
+        <v>0.6064495928036936</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>9495</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3379</v>
+        <v>3399</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19974</v>
+        <v>20783</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009728790521241438</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00346207538726016</v>
+        <v>0.003482172727043494</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02046494605235619</v>
+        <v>0.02129338794555757</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -3585,19 +3585,19 @@
         <v>2812</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7580</v>
+        <v>6809</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.002574828541656614</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00081386273796485</v>
+        <v>0.0008152572023125635</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.006940912596495217</v>
+        <v>0.00623492172880375</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -3606,19 +3606,19 @@
         <v>12308</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5824</v>
+        <v>5257</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23488</v>
+        <v>23569</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.005950961903184952</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00281590084087717</v>
+        <v>0.002541815891518898</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01135693626009364</v>
+        <v>0.0113961949741932</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>166934</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>144437</v>
+        <v>142415</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>192258</v>
+        <v>191001</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.171036647644392</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1479870087834136</v>
+        <v>0.1459149318614348</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1969829940975631</v>
+        <v>0.1956951461306289</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>84</v>
@@ -3656,19 +3656,19 @@
         <v>90750</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>72807</v>
+        <v>74941</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>110446</v>
+        <v>111878</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08309360747797571</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06666422044822004</v>
+        <v>0.06861843123094194</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1011277438310573</v>
+        <v>0.1024390316585596</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>247</v>
@@ -3677,19 +3677,19 @@
         <v>257684</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>229206</v>
+        <v>227262</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>287613</v>
+        <v>287436</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1245961249175911</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1108261714653261</v>
+        <v>0.1098862969786084</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1390672923929543</v>
+        <v>0.1389819065882883</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>165967</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>142024</v>
+        <v>142869</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>193203</v>
+        <v>191669</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1700459290992676</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1455143461190275</v>
+        <v>0.1463798461368915</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1979515302457049</v>
+        <v>0.1963792995020432</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>242</v>
@@ -3727,19 +3727,19 @@
         <v>259330</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>231559</v>
+        <v>231257</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>289521</v>
+        <v>288329</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2374509833652934</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2120236195788255</v>
+        <v>0.2117470007801425</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2650949299753003</v>
+        <v>0.2640039974495723</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>393</v>
@@ -3748,19 +3748,19 @@
         <v>425297</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>385402</v>
+        <v>386424</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>466943</v>
+        <v>463029</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2056408545034729</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1863508971945947</v>
+        <v>0.1868447360307041</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2257776971424069</v>
+        <v>0.2238853202176674</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>101604</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>83014</v>
+        <v>84171</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>123552</v>
+        <v>122770</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1041012338501242</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08505376018065594</v>
+        <v>0.08623920062493202</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.126588822208894</v>
+        <v>0.1257870326778299</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>89</v>
@@ -3798,19 +3798,19 @@
         <v>95770</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>79089</v>
+        <v>78362</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>115377</v>
+        <v>115780</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08768983462249555</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07241652814329765</v>
+        <v>0.07175083065812905</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1056432815243865</v>
+        <v>0.1060123334840549</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>189</v>
@@ -3819,19 +3819,19 @@
         <v>197374</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>169971</v>
+        <v>174016</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>225788</v>
+        <v>227071</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09543478386878342</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08218471820832106</v>
+        <v>0.08414072021891916</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1091738171341266</v>
+        <v>0.109793922252809</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>532012</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>500401</v>
+        <v>496587</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>565249</v>
+        <v>563296</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5450873988849748</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5126991077825136</v>
+        <v>0.5087914303584141</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5791411013279049</v>
+        <v>0.5771398962900877</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>600</v>
@@ -3869,19 +3869,19 @@
         <v>643479</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>611214</v>
+        <v>611281</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>678146</v>
+        <v>675929</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5891907459925787</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5596477269555467</v>
+        <v>0.5597089951018495</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6209331514427298</v>
+        <v>0.6189034793671784</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1103</v>
@@ -3890,19 +3890,19 @@
         <v>1175492</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1125511</v>
+        <v>1131099</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1225558</v>
+        <v>1224187</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5683772748069676</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5442106738131096</v>
+        <v>0.5469123910242413</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5925853771775437</v>
+        <v>0.5919224888954234</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>12939</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6727</v>
+        <v>7103</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21333</v>
+        <v>21301</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01461876937978082</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007600319060824718</v>
+        <v>0.008024555876221742</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02410181945298422</v>
+        <v>0.02406552195419426</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -4015,19 +4015,19 @@
         <v>8800</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3719</v>
+        <v>3797</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16861</v>
+        <v>16713</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01004855612960159</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004246662567031014</v>
+        <v>0.004335469319187242</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0192519153069092</v>
+        <v>0.01908269395258671</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -4036,19 +4036,19 @@
         <v>21740</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14034</v>
+        <v>13717</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32649</v>
+        <v>33109</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0123457562989571</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007970004568249056</v>
+        <v>0.007789920429599576</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01854106189767413</v>
+        <v>0.01880226745288797</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>159885</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>138122</v>
+        <v>136842</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>183746</v>
+        <v>185672</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1806376806972744</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1560495925285433</v>
+        <v>0.1546034458814065</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2075952622708083</v>
+        <v>0.2097712100407348</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>55</v>
@@ -4086,19 +4086,19 @@
         <v>58081</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>43862</v>
+        <v>43990</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75253</v>
+        <v>73233</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06631814399976127</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05008247884915305</v>
+        <v>0.05022908291724471</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08592550692652992</v>
+        <v>0.0836190502675407</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>204</v>
@@ -4107,19 +4107,19 @@
         <v>217966</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>188765</v>
+        <v>187914</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>248136</v>
+        <v>246717</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1237804208534445</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1071975936023919</v>
+        <v>0.1067139825091405</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1409135400037059</v>
+        <v>0.1401076302762184</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>123447</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>103253</v>
+        <v>104496</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>146320</v>
+        <v>144345</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.139470021437958</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1166552048308052</v>
+        <v>0.1180595013520229</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1653118822020713</v>
+        <v>0.1630803820720145</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>211</v>
@@ -4157,19 +4157,19 @@
         <v>221907</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>197289</v>
+        <v>198950</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>249486</v>
+        <v>247883</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2533770768232388</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2252680668680462</v>
+        <v>0.2271649472477955</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2848679265914509</v>
+        <v>0.2830373657348489</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>328</v>
@@ -4178,19 +4178,19 @@
         <v>345354</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>315306</v>
+        <v>312314</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>384604</v>
+        <v>379819</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1961221321198177</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1790582472154247</v>
+        <v>0.1773592357870635</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2184119401384096</v>
+        <v>0.2156944778418506</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>67209</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>52663</v>
+        <v>52425</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>85086</v>
+        <v>84711</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07593220720090232</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0594982997382609</v>
+        <v>0.05922967388672137</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09612936598156982</v>
+        <v>0.0957061682771711</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -4228,19 +4228,19 @@
         <v>60940</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>46225</v>
+        <v>47081</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77174</v>
+        <v>77969</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06958251690882951</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05278042545033378</v>
+        <v>0.05375787239103824</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08811922244153492</v>
+        <v>0.08902674670400226</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>122</v>
@@ -4249,19 +4249,19 @@
         <v>128149</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>106892</v>
+        <v>109274</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>151584</v>
+        <v>152276</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07277416439130369</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06070253211005469</v>
+        <v>0.06205550123463181</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08608297964586872</v>
+        <v>0.086475522259422</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>521635</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>489956</v>
+        <v>492076</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>550394</v>
+        <v>551846</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5893413212840845</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5535506410942664</v>
+        <v>0.5559456570686705</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6218329195718197</v>
+        <v>0.6234740387320842</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>490</v>
@@ -4299,19 +4299,19 @@
         <v>526068</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>498633</v>
+        <v>494941</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>555169</v>
+        <v>555294</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6006737061385689</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5693479010539948</v>
+        <v>0.5651321951386042</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6339027365318481</v>
+        <v>0.6340443519001785</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>976</v>
@@ -4320,19 +4320,19 @@
         <v>1047702</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1003646</v>
+        <v>1002928</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1089769</v>
+        <v>1087368</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.594977526336477</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5699581219179157</v>
+        <v>0.5695506624204217</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6188667407121666</v>
+        <v>0.6175029797054307</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>15178</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8132</v>
+        <v>8112</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26968</v>
+        <v>26572</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03017438112411902</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01616626405075967</v>
+        <v>0.01612736222362013</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05361088482335285</v>
+        <v>0.05282504456270746</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -4445,19 +4445,19 @@
         <v>8549</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3814</v>
+        <v>3888</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17754</v>
+        <v>17464</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01888328448521193</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008424820148985296</v>
+        <v>0.008587872131965081</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0392145873565362</v>
+        <v>0.03857544019705877</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -4466,19 +4466,19 @@
         <v>23728</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>15170</v>
+        <v>13774</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>37292</v>
+        <v>36382</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02482587248990628</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01587185024562298</v>
+        <v>0.01441114352723816</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03901837238359438</v>
+        <v>0.03806581030490905</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>78551</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>60843</v>
+        <v>63175</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>97402</v>
+        <v>96511</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1561579056249307</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1209549880364242</v>
+        <v>0.1255904481716344</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1936341534008093</v>
+        <v>0.1918613359370633</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>40</v>
@@ -4516,19 +4516,19 @@
         <v>44376</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>32831</v>
+        <v>31559</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>59886</v>
+        <v>58302</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09801763279878148</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07251693902017006</v>
+        <v>0.0697062409210069</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1322761010462846</v>
+        <v>0.1287766717760448</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>114</v>
@@ -4537,19 +4537,19 @@
         <v>122927</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>100934</v>
+        <v>102069</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>145034</v>
+        <v>144938</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1286172901160157</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1056058844448347</v>
+        <v>0.1067936770498853</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1517479659846932</v>
+        <v>0.1516471886728768</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>79264</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>63363</v>
+        <v>63293</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>98339</v>
+        <v>96654</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1575761399132006</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1259640196269596</v>
+        <v>0.1258254386907166</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1954956923568032</v>
+        <v>0.1921467279840429</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>126</v>
@@ -4587,19 +4587,19 @@
         <v>139478</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>118923</v>
+        <v>120312</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>160210</v>
+        <v>162575</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3080788397096807</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2626755748421775</v>
+        <v>0.2657451187599615</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.353871496058128</v>
+        <v>0.3590936834444998</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>199</v>
@@ -4608,19 +4608,19 @@
         <v>218743</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>191250</v>
+        <v>192110</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>246548</v>
+        <v>249096</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2288681512276761</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2001026608796899</v>
+        <v>0.2010023377474896</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2579604889875813</v>
+        <v>0.2606265467507087</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>56395</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>43762</v>
+        <v>42556</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>75590</v>
+        <v>72344</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1121120592714486</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08699863743261951</v>
+        <v>0.08459997751367729</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1502711259624493</v>
+        <v>0.143818104396179</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -4658,19 +4658,19 @@
         <v>49674</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36745</v>
+        <v>36411</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>64928</v>
+        <v>64886</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1097203917058562</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08116282638864861</v>
+        <v>0.08042387919376812</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1434132094124435</v>
+        <v>0.1433204372053593</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>94</v>
@@ -4679,19 +4679,19 @@
         <v>106069</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>85768</v>
+        <v>86734</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>125832</v>
+        <v>129355</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1109791441052938</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08973811620138103</v>
+        <v>0.09074907600907305</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.131656399466211</v>
+        <v>0.1353432218564306</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>273634</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>248395</v>
+        <v>250789</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>296721</v>
+        <v>299531</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5439795140663011</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4938042016107507</v>
+        <v>0.498564208074527</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5898765284971098</v>
+        <v>0.5954614644238081</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>195</v>
@@ -4729,19 +4729,19 @@
         <v>210658</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>188808</v>
+        <v>189757</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>232751</v>
+        <v>232847</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4652998513004697</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4170388134520551</v>
+        <v>0.4191329866773292</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5140985862137184</v>
+        <v>0.5143107730928996</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>447</v>
@@ -4750,19 +4750,19 @@
         <v>484292</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>450482</v>
+        <v>450658</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>516878</v>
+        <v>515987</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5067095420611082</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4713343191202605</v>
+        <v>0.4715193594137727</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5408041068733495</v>
+        <v>0.539872130700961</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>50275</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>37243</v>
+        <v>35906</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>70140</v>
+        <v>69081</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0147560735004369</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01093126323120411</v>
+        <v>0.01053875028556756</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02058671794927739</v>
+        <v>0.02027580459723294</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>27</v>
@@ -4875,19 +4875,19 @@
         <v>31200</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19721</v>
+        <v>20586</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>45583</v>
+        <v>45050</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.008814779171526543</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.005571575606632637</v>
+        <v>0.005816099208579395</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01287818187204825</v>
+        <v>0.01272753686008809</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>69</v>
@@ -4896,19 +4896,19 @@
         <v>81475</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>63828</v>
+        <v>63736</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>103230</v>
+        <v>102860</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01172876532521491</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009188338759602965</v>
+        <v>0.009175218736519842</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0148605700532968</v>
+        <v>0.01480725416238917</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>593002</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>546783</v>
+        <v>547151</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>637596</v>
+        <v>636424</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1740516325953111</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1604858466503476</v>
+        <v>0.1605938953828967</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1871403818852362</v>
+        <v>0.1867966041473777</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>252</v>
@@ -4946,19 +4946,19 @@
         <v>272921</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>239550</v>
+        <v>241717</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>309694</v>
+        <v>305981</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07710622171148122</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06767828936767839</v>
+        <v>0.06829037944605486</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08749558694438929</v>
+        <v>0.08644650624665882</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>818</v>
@@ -4967,19 +4967,19 @@
         <v>865922</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>815640</v>
+        <v>809786</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>925477</v>
+        <v>924265</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1246543769349105</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1174159311993839</v>
+        <v>0.1165732958698122</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1332276689203519</v>
+        <v>0.1330531725964129</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>518637</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>475501</v>
+        <v>473470</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>566441</v>
+        <v>561419</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.152224831425614</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1395640361239504</v>
+        <v>0.1389679916905024</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1662558234033584</v>
+        <v>0.1647816518621167</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>784</v>
@@ -5017,19 +5017,19 @@
         <v>838937</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>792008</v>
+        <v>790442</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>896902</v>
+        <v>896590</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.237018691217565</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2237600378316756</v>
+        <v>0.2233177036769076</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2533950788806649</v>
+        <v>0.2533069795540509</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1266</v>
@@ -5038,19 +5038,19 @@
         <v>1357574</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1287365</v>
+        <v>1293314</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1419865</v>
+        <v>1422971</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1954304244742047</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1853233551490256</v>
+        <v>0.1861797963349152</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2043975079372206</v>
+        <v>0.204844672735847</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>342034</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>303979</v>
+        <v>304432</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>375035</v>
+        <v>378342</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1003903197531125</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0892207333307906</v>
+        <v>0.08935356048436691</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1100763116587833</v>
+        <v>0.1110470135621299</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>300</v>
@@ -5088,19 +5088,19 @@
         <v>328148</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>294568</v>
+        <v>293061</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>366454</v>
+        <v>365623</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09270922926364335</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08322204323182467</v>
+        <v>0.08279624670700987</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1035314380362646</v>
+        <v>0.1032966735960864</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>626</v>
@@ -5109,19 +5109,19 @@
         <v>670182</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>620945</v>
+        <v>621623</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>723920</v>
+        <v>727526</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09647652138762157</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08938846870395772</v>
+        <v>0.08948617003192477</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1042123080102344</v>
+        <v>0.1047314999156106</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>1903097</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1840197</v>
+        <v>1839196</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1965489</v>
+        <v>1961460</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5585771427255255</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5401152284335844</v>
+        <v>0.5398215000437729</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5768897946928916</v>
+        <v>0.5757071592864895</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1918</v>
@@ -5159,19 +5159,19 @@
         <v>2068335</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2002988</v>
+        <v>2004662</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2124809</v>
+        <v>2129358</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5843510786357839</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5658891578391015</v>
+        <v>0.5663620552979017</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6003063807768615</v>
+        <v>0.6015915517601323</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3693</v>
@@ -5180,19 +5180,19 @@
         <v>3971432</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3882794</v>
+        <v>3890322</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4054415</v>
+        <v>4053651</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5717099118780483</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.5589499785386211</v>
+        <v>0.5600336461566193</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5836557140018799</v>
+        <v>0.5835457687695781</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>9886</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4736</v>
+        <v>4924</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18600</v>
+        <v>18893</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008772781419119203</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004202544304965122</v>
+        <v>0.004369895844159191</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01650600703438429</v>
+        <v>0.01676634913427751</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -5545,19 +5545,19 @@
         <v>7002</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2727</v>
+        <v>3066</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13199</v>
+        <v>14227</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005570725918244607</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.002169237524816195</v>
+        <v>0.002439093542690945</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01050054450229438</v>
+        <v>0.01131878942043749</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -5566,19 +5566,19 @@
         <v>16888</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10115</v>
+        <v>10293</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>28203</v>
+        <v>27037</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007084372944808197</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004243220359906283</v>
+        <v>0.004317841790814446</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01183105293851717</v>
+        <v>0.01134196909948749</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>162533</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>140000</v>
+        <v>139467</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>186585</v>
+        <v>187481</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1442342574526891</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1242380434524452</v>
+        <v>0.1237655706456638</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1655790461461516</v>
+        <v>0.166374128971396</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -5616,19 +5616,19 @@
         <v>106935</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>88097</v>
+        <v>89024</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>129937</v>
+        <v>129319</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08507342302924048</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07008686413521627</v>
+        <v>0.0708241321844818</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1033730391398406</v>
+        <v>0.102881666321416</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>251</v>
@@ -5637,19 +5637,19 @@
         <v>269467</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>237601</v>
+        <v>239440</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>300591</v>
+        <v>302537</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1130394033470754</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09967168796641454</v>
+        <v>0.1004432777696387</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1260956782097146</v>
+        <v>0.1269118117385377</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>140094</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>117815</v>
+        <v>119083</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>165354</v>
+        <v>164221</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1243223056953905</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1045508257277722</v>
+        <v>0.1056764387686415</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1467379437174141</v>
+        <v>0.1457329971900235</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>192</v>
@@ -5687,19 +5687,19 @@
         <v>200672</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>175734</v>
+        <v>173638</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>227384</v>
+        <v>228531</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1596474772468572</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1398074918415306</v>
+        <v>0.1381398558608309</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1808986310001621</v>
+        <v>0.1818107414007508</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>320</v>
@@ -5708,19 +5708,19 @@
         <v>340767</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>307585</v>
+        <v>307730</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>378757</v>
+        <v>377186</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1429488782166025</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1290296070351538</v>
+        <v>0.1290902000283578</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1588857350190066</v>
+        <v>0.1582266696663837</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>75608</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>59152</v>
+        <v>59708</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>92017</v>
+        <v>96159</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06709567372010995</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05249244009001584</v>
+        <v>0.05298597547002295</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08165738265436352</v>
+        <v>0.0853333347521449</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>77</v>
@@ -5758,19 +5758,19 @@
         <v>77789</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60774</v>
+        <v>62547</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>96292</v>
+        <v>96480</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06188586032795319</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04834941133976613</v>
+        <v>0.04975998108531377</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0766061285791847</v>
+        <v>0.07675585581253479</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>149</v>
@@ -5779,19 +5779,19 @@
         <v>153396</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>131453</v>
+        <v>131353</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>178106</v>
+        <v>180685</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06434859670083472</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05514336480558156</v>
+        <v>0.05510154982230143</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07471409937684856</v>
+        <v>0.0757958306216565</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>738745</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>706318</v>
+        <v>707930</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>772866</v>
+        <v>774543</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6555749817126914</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6267988980863153</v>
+        <v>0.6282300337849993</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.685854883445723</v>
+        <v>0.687343068756763</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>809</v>
@@ -5829,19 +5829,19 @@
         <v>864572</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>828880</v>
+        <v>828663</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>896492</v>
+        <v>899193</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6878225134777045</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6594266869637894</v>
+        <v>0.6592542716515053</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7132168049411753</v>
+        <v>0.7153653714926066</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1514</v>
@@ -5850,19 +5850,19 @@
         <v>1603317</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1556550</v>
+        <v>1556348</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1650587</v>
+        <v>1651049</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6725787487906792</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6529604683354431</v>
+        <v>0.652875931317347</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6924084180859362</v>
+        <v>0.6926018401626234</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>8063</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3882</v>
+        <v>3273</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16029</v>
+        <v>16762</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.008892965826277924</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00428123898438424</v>
+        <v>0.003609468178307751</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01767910341745497</v>
+        <v>0.0184872595869812</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -5975,19 +5975,19 @@
         <v>11068</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5693</v>
+        <v>5444</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19291</v>
+        <v>18609</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01106395677180646</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005690865323225162</v>
+        <v>0.005442534661619727</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01928448077656486</v>
+        <v>0.01860278908637015</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -5996,19 +5996,19 @@
         <v>19131</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11729</v>
+        <v>11708</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29791</v>
+        <v>29077</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01003177869633956</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006150435353804931</v>
+        <v>0.006139638445749567</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01562192453350946</v>
+        <v>0.0152474844770491</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>168128</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>144606</v>
+        <v>146419</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>192548</v>
+        <v>191943</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1854362137360731</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1594929060330881</v>
+        <v>0.1614924019331694</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2123701822331375</v>
+        <v>0.2117031932535302</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>90</v>
@@ -6046,19 +6046,19 @@
         <v>92593</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>74270</v>
+        <v>75567</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>112170</v>
+        <v>110814</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09256230731623877</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.07424556037792612</v>
+        <v>0.07554182732005003</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1121330624800478</v>
+        <v>0.1107773009381282</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>248</v>
@@ -6067,19 +6067,19 @@
         <v>260721</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>233122</v>
+        <v>234786</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>292567</v>
+        <v>292194</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1367183689465095</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1222458196788078</v>
+        <v>0.1231180931351887</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1534180448541421</v>
+        <v>0.1532222972895124</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>89220</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>71889</v>
+        <v>73195</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>108427</v>
+        <v>108492</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09840439361448347</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07928959267249763</v>
+        <v>0.08073063245816105</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1195890800340919</v>
+        <v>0.1196605026223519</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>120</v>
@@ -6117,19 +6117,19 @@
         <v>123821</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>103127</v>
+        <v>102354</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>145158</v>
+        <v>145582</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1237804853888349</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1030930654008572</v>
+        <v>0.1023200298733588</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1451098244762043</v>
+        <v>0.1455334532804416</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>210</v>
@@ -6138,19 +6138,19 @@
         <v>213041</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>184680</v>
+        <v>185018</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>238862</v>
+        <v>242053</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1117156512979931</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09684368587794993</v>
+        <v>0.09702061030845402</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1252559364411078</v>
+        <v>0.1269292013554449</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>71841</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>56712</v>
+        <v>56900</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88779</v>
+        <v>88924</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07923698554580161</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06254986524540307</v>
+        <v>0.06275814394103511</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09791876304022611</v>
+        <v>0.09807829607614739</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -6188,19 +6188,19 @@
         <v>100128</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>81930</v>
+        <v>81249</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>120471</v>
+        <v>121481</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1000951174249847</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08190326543067847</v>
+        <v>0.08122225735367565</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1204312547522345</v>
+        <v>0.1214409597491903</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>167</v>
@@ -6209,19 +6209,19 @@
         <v>171970</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>146891</v>
+        <v>149826</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>197018</v>
+        <v>198748</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09017830664084361</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07702772228820959</v>
+        <v>0.07856637827920755</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1033132023226699</v>
+        <v>0.1042206992270958</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>569411</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>538859</v>
+        <v>540857</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>596276</v>
+        <v>597729</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6280294412773639</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5943326796717059</v>
+        <v>0.596535917948454</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6576603887385617</v>
+        <v>0.6592630981365912</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>627</v>
@@ -6259,19 +6259,19 @@
         <v>672721</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>643571</v>
+        <v>643641</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>704344</v>
+        <v>705527</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6724981330981352</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6433576255835056</v>
+        <v>0.6434279772570639</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7041112351233668</v>
+        <v>0.7052939466355712</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1181</v>
@@ -6280,19 +6280,19 @@
         <v>1242132</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1197764</v>
+        <v>1198470</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1281416</v>
+        <v>1280767</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6513558944183142</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.628089828794375</v>
+        <v>0.6284601125860079</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6719558341497961</v>
+        <v>0.6716155149070817</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>19383</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12444</v>
+        <v>12145</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>29587</v>
+        <v>29154</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02365882644958167</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01518918210520467</v>
+        <v>0.01482338122699144</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03611336706173837</v>
+        <v>0.03558460303602394</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -6405,19 +6405,19 @@
         <v>10989</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5082</v>
+        <v>5859</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18922</v>
+        <v>18920</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01426943292593387</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006599666709956483</v>
+        <v>0.007608199542692476</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02457173257094509</v>
+        <v>0.0245694928314358</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -6426,19 +6426,19 @@
         <v>30372</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20758</v>
+        <v>21048</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42413</v>
+        <v>42418</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01910948154407587</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01306036143796194</v>
+        <v>0.01324305785843956</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02668546786328202</v>
+        <v>0.02668858403199845</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>137842</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>115699</v>
+        <v>115593</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>159866</v>
+        <v>160033</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1682470348664808</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1412192921845883</v>
+        <v>0.141090045177575</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1951280619995382</v>
+        <v>0.1953323590755937</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>65</v>
@@ -6476,19 +6476,19 @@
         <v>67858</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>54083</v>
+        <v>53797</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>86059</v>
+        <v>86069</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08811809395623521</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07023023373175698</v>
+        <v>0.06985929042911511</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1117540117083929</v>
+        <v>0.111765982023074</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>192</v>
@@ -6497,19 +6497,19 @@
         <v>205700</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>177758</v>
+        <v>180086</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>234113</v>
+        <v>234366</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1294229949329645</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.111842373054936</v>
+        <v>0.1133069969626625</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1473000123173382</v>
+        <v>0.1474588604394316</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>76856</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>60325</v>
+        <v>61017</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>93759</v>
+        <v>94236</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.09380811073383992</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.07363115727824489</v>
+        <v>0.07447616005190066</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1144403659980382</v>
+        <v>0.1150222747175952</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>89</v>
@@ -6547,19 +6547,19 @@
         <v>96992</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>79306</v>
+        <v>77518</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>117341</v>
+        <v>115437</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1259505515595861</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1029843555692511</v>
+        <v>0.100662897104973</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1523758091578389</v>
+        <v>0.1499035111874899</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>161</v>
@@ -6568,19 +6568,19 @@
         <v>173847</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>149793</v>
+        <v>150350</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>202467</v>
+        <v>202351</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1093817523170634</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.09424702895066275</v>
+        <v>0.09459733770387102</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1273887882207706</v>
+        <v>0.1273155936396258</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>47798</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>35996</v>
+        <v>36348</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>63759</v>
+        <v>64155</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05834088998934799</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04393541843083134</v>
+        <v>0.04436566973571696</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07782240712408919</v>
+        <v>0.07830650437269657</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -6618,19 +6618,19 @@
         <v>63457</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>49891</v>
+        <v>50013</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79690</v>
+        <v>79811</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08240361528807207</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06478739293177586</v>
+        <v>0.06494587737534507</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1034832216289375</v>
+        <v>0.103640129596405</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>107</v>
@@ -6639,19 +6639,19 @@
         <v>111255</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>92500</v>
+        <v>92175</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>133418</v>
+        <v>132621</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06999975128583424</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05819964053970254</v>
+        <v>0.05799477764191396</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08394398754999408</v>
+        <v>0.08344306577349704</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>537407</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>509090</v>
+        <v>508112</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>563220</v>
+        <v>565748</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6559451379607496</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6213823857354629</v>
+        <v>0.6201891894555723</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6874519939592947</v>
+        <v>0.690537290144363</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>499</v>
@@ -6689,19 +6689,19 @@
         <v>530783</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>506853</v>
+        <v>503325</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>557092</v>
+        <v>555855</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6892583062701727</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6581846167324547</v>
+        <v>0.6536025041163142</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7234228472781022</v>
+        <v>0.7218162934283244</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1020</v>
@@ -6710,19 +6710,19 @@
         <v>1068189</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1029870</v>
+        <v>1031818</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1107696</v>
+        <v>1106548</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.672086019920062</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6479761375695119</v>
+        <v>0.6492017182757394</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6969428917074757</v>
+        <v>0.696220911279377</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>8598</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4096</v>
+        <v>3849</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16617</v>
+        <v>15857</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01700454859914435</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.008100356771926052</v>
+        <v>0.007611451562911416</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03286255889875059</v>
+        <v>0.03136037495753871</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -6835,19 +6835,19 @@
         <v>8269</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3515</v>
+        <v>3538</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17438</v>
+        <v>16732</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01700254471064206</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007228404679012241</v>
+        <v>0.007275723130888028</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03585654626678611</v>
+        <v>0.03440612833156906</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -6856,19 +6856,19 @@
         <v>16867</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10335</v>
+        <v>9703</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>26777</v>
+        <v>27268</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01700356617594927</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01041927963270925</v>
+        <v>0.009781425307628421</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02699369210812378</v>
+        <v>0.02748915204629656</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>122056</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>102855</v>
+        <v>102466</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>141782</v>
+        <v>141084</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2413896168467918</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2034146196100845</v>
+        <v>0.2026459648474136</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2804000550966263</v>
+        <v>0.2790191518524772</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>63</v>
@@ -6906,19 +6906,19 @@
         <v>65653</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>51732</v>
+        <v>50705</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>82450</v>
+        <v>81457</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1350013431010535</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1063747292633822</v>
+        <v>0.1042626922267353</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1695409138922665</v>
+        <v>0.167498687874118</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>176</v>
@@ -6927,19 +6927,19 @@
         <v>187710</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>163521</v>
+        <v>162886</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>215709</v>
+        <v>212765</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1892318706984366</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1648466810707435</v>
+        <v>0.1642073510730065</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.217458459437718</v>
+        <v>0.2144905688340464</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>76985</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>60131</v>
+        <v>60955</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>94952</v>
+        <v>94196</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1522527916174261</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1189199247966321</v>
+        <v>0.1205498883594872</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1877858034094778</v>
+        <v>0.1862909817063498</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>94</v>
@@ -6977,19 +6977,19 @@
         <v>104599</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>85938</v>
+        <v>88395</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>125754</v>
+        <v>126095</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2150854666836983</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1767117519179095</v>
+        <v>0.1817654594400778</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2585851190048009</v>
+        <v>0.2592863397904691</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>163</v>
@@ -6998,19 +6998,19 @@
         <v>181585</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>157270</v>
+        <v>158219</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>211947</v>
+        <v>209822</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.183057039120878</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1585456401801978</v>
+        <v>0.1595020896289168</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.213666123857998</v>
+        <v>0.2115238272412054</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>34279</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24599</v>
+        <v>24015</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>47725</v>
+        <v>48330</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06779358015058086</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0486490842438812</v>
+        <v>0.04749408454260425</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09438606316814824</v>
+        <v>0.09558155307828535</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>41</v>
@@ -7048,19 +7048,19 @@
         <v>43086</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32258</v>
+        <v>31136</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>57199</v>
+        <v>58744</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08859604783721314</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06633203964824319</v>
+        <v>0.06402522758662288</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1176163392867171</v>
+        <v>0.1207943400476202</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>73</v>
@@ -7069,19 +7069,19 @@
         <v>77365</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>60780</v>
+        <v>61375</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>95773</v>
+        <v>96614</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07799216492555182</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06127305282426933</v>
+        <v>0.06187265526901502</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09654915522048238</v>
+        <v>0.09739763509421438</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>263722</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>240219</v>
+        <v>240619</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>285916</v>
+        <v>286872</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5215594627860569</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4750791566808179</v>
+        <v>0.4758695230909604</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5654535472934771</v>
+        <v>0.5673423539153489</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>247</v>
@@ -7119,19 +7119,19 @@
         <v>264708</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>242679</v>
+        <v>242667</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>286630</v>
+        <v>287946</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.544314597667393</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4990155917611259</v>
+        <v>0.4989910148300895</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5893920675791371</v>
+        <v>0.5920969863501129</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>494</v>
@@ -7140,19 +7140,19 @@
         <v>528430</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>493847</v>
+        <v>494950</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>560557</v>
+        <v>558557</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5327153590791843</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4978515273099879</v>
+        <v>0.4989637357455315</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5651025979988806</v>
+        <v>0.5630863009230934</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>45930</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>33121</v>
+        <v>33235</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>61192</v>
+        <v>60605</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01367599279847538</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009862074380384877</v>
+        <v>0.00989581752595586</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01822027337609431</v>
+        <v>0.01804549886138239</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>36</v>
@@ -7265,19 +7265,19 @@
         <v>37327</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>26605</v>
+        <v>26965</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>52125</v>
+        <v>50994</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01062329935618193</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007571906164162688</v>
+        <v>0.007674230502328671</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.01483483648255386</v>
+        <v>0.01451293283292976</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>80</v>
@@ -7286,19 +7286,19 @@
         <v>83257</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>66782</v>
+        <v>66066</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>103088</v>
+        <v>102728</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0121151667720396</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.009717828690381491</v>
+        <v>0.009613539705920052</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.01500086019329503</v>
+        <v>0.01494839781368878</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>590560</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>547802</v>
+        <v>545635</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>635781</v>
+        <v>639119</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1758426506730803</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1631111377225183</v>
+        <v>0.1624660157812073</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1893074277464185</v>
+        <v>0.1903015438766858</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>318</v>
@@ -7336,19 +7336,19 @@
         <v>333039</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>300535</v>
+        <v>300964</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>368340</v>
+        <v>374116</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.09478305746705305</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08553262298754774</v>
+        <v>0.08565453234272691</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1048297690663652</v>
+        <v>0.1064738198284359</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>867</v>
@@ -7357,19 +7357,19 @@
         <v>923598</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>869736</v>
+        <v>867814</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>984439</v>
+        <v>982803</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1343973089904212</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1265594712335921</v>
+        <v>0.1262797704311484</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1432505272005808</v>
+        <v>0.143012442377107</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>383155</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>348516</v>
+        <v>347891</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>424530</v>
+        <v>425906</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1140866862715985</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1037727716095154</v>
+        <v>0.1035867075049203</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1264061839490875</v>
+        <v>0.1268160236112465</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>495</v>
@@ -7407,19 +7407,19 @@
         <v>526085</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>483993</v>
+        <v>485736</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>571186</v>
+        <v>570614</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1497240675496914</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1377449152437796</v>
+        <v>0.1382407718901527</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1625600664225892</v>
+        <v>0.1623972068685136</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>854</v>
@@ -7428,19 +7428,19 @@
         <v>909240</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>849783</v>
+        <v>856128</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>960880</v>
+        <v>970361</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1323078910091019</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1236561095446454</v>
+        <v>0.1245793491560123</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1398222855105421</v>
+        <v>0.141201938614907</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>229526</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>203831</v>
+        <v>200302</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>260912</v>
+        <v>262656</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06834276438935474</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.06069196603736369</v>
+        <v>0.05964104023929144</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.07768796755620039</v>
+        <v>0.07820732655655013</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>278</v>
@@ -7478,19 +7478,19 @@
         <v>284460</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>252595</v>
+        <v>254831</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>317259</v>
+        <v>317533</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0809574545624392</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07188870401743162</v>
+        <v>0.07252516489331734</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09029223180420168</v>
+        <v>0.09037025490733783</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>496</v>
@@ -7499,19 +7499,19 @@
         <v>513986</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>471242</v>
+        <v>474087</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>556560</v>
+        <v>559994</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07479258881809975</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0685727460506939</v>
+        <v>0.06898671422621773</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08098772062725849</v>
+        <v>0.08148751071900605</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>2109285</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2052282</v>
+        <v>2052382</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2161508</v>
+        <v>2163901</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.628051905867491</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6110790617922007</v>
+        <v>0.6111089034053776</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6436016084535734</v>
+        <v>0.6443141682054594</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2182</v>
@@ -7549,19 +7549,19 @@
         <v>2332784</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2276867</v>
+        <v>2273856</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2389015</v>
+        <v>2389672</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6639121210646344</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6479982070649254</v>
+        <v>0.6471410663879847</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6799156252281201</v>
+        <v>0.6801023568016928</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4209</v>
@@ -7570,19 +7570,19 @@
         <v>4442069</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4363499</v>
+        <v>4363928</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4526402</v>
+        <v>4520711</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6463870444103376</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.634953932539005</v>
+        <v>0.6350163492241648</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6586587309535554</v>
+        <v>0.657830655102464</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>3872</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10895</v>
+        <v>10946</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.007786020530324181</v>
+        <v>0.00778602053032418</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001637134492566604</v>
+        <v>0.001614781776583728</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02190899274384613</v>
+        <v>0.0220121457137301</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -7935,19 +7935,19 @@
         <v>2260</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>0</v>
+        <v>679</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6243</v>
+        <v>6231</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003624029446959988</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0</v>
+        <v>0.001088774666446025</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01001156071697485</v>
+        <v>0.009991614698869887</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -7956,19 +7956,19 @@
         <v>6132</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2528</v>
+        <v>2227</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13430</v>
+        <v>13704</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.005470520275296878</v>
+        <v>0.005470520275296876</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002255410535627354</v>
+        <v>0.001987028198122461</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01198229864005434</v>
+        <v>0.01222631976612115</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>122438</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>99384</v>
+        <v>99925</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144775</v>
+        <v>147289</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2462184936425364</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1998586583469143</v>
+        <v>0.2009456975651706</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2911386153227132</v>
+        <v>0.2961935559659588</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>91</v>
@@ -8006,19 +8006,19 @@
         <v>79929</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>63669</v>
+        <v>64236</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>98522</v>
+        <v>98943</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1281778280431075</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1021027523674629</v>
+        <v>0.1030112543758478</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1579933736717744</v>
+        <v>0.1586695613601744</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>181</v>
@@ -8027,19 +8027,19 @@
         <v>202367</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>174390</v>
+        <v>175644</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>234090</v>
+        <v>234207</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.1805472353855054</v>
+        <v>0.1805472353855053</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1555869059714986</v>
+        <v>0.1567057302206541</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2088501871091869</v>
+        <v>0.2089539029085015</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>39222</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28610</v>
+        <v>28022</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>53663</v>
+        <v>54313</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07887454416049326</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05753340565586053</v>
+        <v>0.05635057450108832</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1079151490879871</v>
+        <v>0.1092207652598062</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>92</v>
@@ -8077,19 +8077,19 @@
         <v>72651</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>58928</v>
+        <v>57656</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>88505</v>
+        <v>88231</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1165058406074647</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09450018075931017</v>
+        <v>0.09246006424173948</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1419306106310857</v>
+        <v>0.1414904098450243</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>129</v>
@@ -8098,19 +8098,19 @@
         <v>111873</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>94997</v>
+        <v>95060</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>133719</v>
+        <v>136273</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.09981050360265953</v>
+        <v>0.09981050360265951</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08475395845275452</v>
+        <v>0.08481070864791991</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1193007345204261</v>
+        <v>0.1215796900135793</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>18207</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10540</v>
+        <v>10542</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32405</v>
+        <v>34125</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03661405054226746</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02119533846013412</v>
+        <v>0.02119900647092442</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0651652019485662</v>
+        <v>0.06862513554152651</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -8148,19 +8148,19 @@
         <v>31642</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22953</v>
+        <v>22135</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43214</v>
+        <v>42503</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.05074183729748779</v>
+        <v>0.05074183729748778</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03680774539612332</v>
+        <v>0.03549599283036208</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06930008306638913</v>
+        <v>0.068160219518426</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -8169,19 +8169,19 @@
         <v>49849</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>37536</v>
+        <v>37393</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65211</v>
+        <v>66112</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04447396498692835</v>
+        <v>0.04447396498692834</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03348871157536659</v>
+        <v>0.03336081098247168</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05817951647359702</v>
+        <v>0.05898370976012671</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>313534</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>289363</v>
+        <v>289317</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>339513</v>
+        <v>338862</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6305068911243787</v>
+        <v>0.6305068911243786</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5819006282470732</v>
+        <v>0.5818077252464617</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6827498650792431</v>
+        <v>0.681440091213958</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>637</v>
@@ -8219,19 +8219,19 @@
         <v>437099</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>415307</v>
+        <v>413675</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>457807</v>
+        <v>459130</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.70095046460498</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6660037199732071</v>
+        <v>0.6633871445396695</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.73415917478439</v>
+        <v>0.7362807033909989</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>946</v>
@@ -8240,19 +8240,19 @@
         <v>750633</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>716019</v>
+        <v>715390</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>782455</v>
+        <v>782581</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.66969777574961</v>
+        <v>0.6696977757496098</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6388158106914146</v>
+        <v>0.6382550859124317</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6980889223785284</v>
+        <v>0.698201514345925</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>8766</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3159</v>
+        <v>3093</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21789</v>
+        <v>22064</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009149858452242103</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003296669126759791</v>
+        <v>0.003228125691826584</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02274225100659991</v>
+        <v>0.0230288264809633</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -8378,19 +8378,19 @@
         <v>8766</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3979</v>
+        <v>3086</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26468</v>
+        <v>21941</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.004226937985263313</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001918728392376929</v>
+        <v>0.001487826361008558</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01276199261935423</v>
+        <v>0.01057949775504337</v>
       </c>
     </row>
     <row r="11">
@@ -8407,19 +8407,19 @@
         <v>236880</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>207196</v>
+        <v>206186</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>271404</v>
+        <v>271808</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2472409517528308</v>
+        <v>0.2472409517528307</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2162578567564893</v>
+        <v>0.2152040201083746</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2832742519810613</v>
+        <v>0.2836964935408197</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>145</v>
@@ -8428,19 +8428,19 @@
         <v>125421</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>105356</v>
+        <v>106681</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>148973</v>
+        <v>149031</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.112399747775946</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09441799242408595</v>
+        <v>0.09560545839944751</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1335062386209329</v>
+        <v>0.1335582900615774</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>314</v>
@@ -8449,19 +8449,19 @@
         <v>362301</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>326324</v>
+        <v>323150</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>409094</v>
+        <v>403485</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1746920127375823</v>
+        <v>0.1746920127375824</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.157344842488001</v>
+        <v>0.1558141197119145</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1972539736226199</v>
+        <v>0.1945496495806949</v>
       </c>
     </row>
     <row r="12">
@@ -8478,19 +8478,19 @@
         <v>84470</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>65269</v>
+        <v>66556</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>106388</v>
+        <v>104352</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.08816432422925798</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06812402506105632</v>
+        <v>0.06946731677522625</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1110408442429154</v>
+        <v>0.1089162386579613</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>192</v>
@@ -8499,19 +8499,19 @@
         <v>143365</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>125596</v>
+        <v>124014</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>165530</v>
+        <v>165069</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1284808732422495</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1125561200064807</v>
+        <v>0.1111385043651087</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1483441416348278</v>
+        <v>0.1479310819428467</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>265</v>
@@ -8520,19 +8520,19 @@
         <v>227835</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>201162</v>
+        <v>199369</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>259299</v>
+        <v>257164</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1098559345782</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09699495288081984</v>
+        <v>0.09613019266777632</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1250270547751776</v>
+        <v>0.1239977807907167</v>
       </c>
     </row>
     <row r="13">
@@ -8549,19 +8549,19 @@
         <v>56466</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40867</v>
+        <v>41929</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>74474</v>
+        <v>76324</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05893603695118797</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04265416856326826</v>
+        <v>0.04376337301655241</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07773169943319171</v>
+        <v>0.07966208307582315</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>104</v>
@@ -8570,19 +8570,19 @@
         <v>81730</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66770</v>
+        <v>67116</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>99780</v>
+        <v>98272</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07324469982631809</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05983739874227146</v>
+        <v>0.0601475310532228</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08942031676634724</v>
+        <v>0.0880696694499723</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>152</v>
@@ -8591,19 +8591,19 @@
         <v>138196</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>116061</v>
+        <v>116392</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>163409</v>
+        <v>159336</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06663456143555491</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05596160837747962</v>
+        <v>0.05612101588080529</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07879151940772615</v>
+        <v>0.07682769596094589</v>
       </c>
     </row>
     <row r="14">
@@ -8620,19 +8620,19 @@
         <v>571512</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>534097</v>
+        <v>535385</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>607413</v>
+        <v>603684</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5965088286144813</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5574577363278552</v>
+        <v>0.558801727382582</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6339803363243018</v>
+        <v>0.6300877113187185</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1166</v>
@@ -8641,19 +8641,19 @@
         <v>765333</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>738420</v>
+        <v>733843</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>794149</v>
+        <v>791528</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6858746791554863</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6617558864236138</v>
+        <v>0.657654482588771</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.711699095009857</v>
+        <v>0.7093503455426386</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1777</v>
@@ -8662,19 +8662,19 @@
         <v>1336845</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1292498</v>
+        <v>1292128</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1382732</v>
+        <v>1386223</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6445905532633993</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6232075654475853</v>
+        <v>0.6230293698095034</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6667163167167598</v>
+        <v>0.6683994123712326</v>
       </c>
     </row>
     <row r="15">
@@ -8766,19 +8766,19 @@
         <v>6750</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1531</v>
+        <v>1674</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19614</v>
+        <v>23257</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006465626644748412</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001466446985835861</v>
+        <v>0.00160348793958897</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01878716335951652</v>
+        <v>0.0222769753292064</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -8787,19 +8787,19 @@
         <v>2298</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6103</v>
+        <v>5686</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00220001878791258</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0006277320627789692</v>
+        <v>0.0006327038812810373</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.005843338443740096</v>
+        <v>0.00544373867919339</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -8808,19 +8808,19 @@
         <v>9048</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3586</v>
+        <v>3751</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>23900</v>
+        <v>25299</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.004332298149274274</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.001716803619126953</v>
+        <v>0.001795879949993613</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01144357714791125</v>
+        <v>0.01211329358602321</v>
       </c>
     </row>
     <row r="17">
@@ -8837,19 +8837,19 @@
         <v>229367</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>202721</v>
+        <v>200534</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>259548</v>
+        <v>260190</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2197013279041426</v>
+        <v>0.2197013279041425</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1941778304455412</v>
+        <v>0.1920833347665505</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2486100249468269</v>
+        <v>0.2492254268566646</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>233</v>
@@ -8858,19 +8858,19 @@
         <v>163353</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>143271</v>
+        <v>143816</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>185335</v>
+        <v>184418</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1563925335690208</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1371658706307093</v>
+        <v>0.1376881153759378</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1774376711978418</v>
+        <v>0.1765595282240904</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>442</v>
@@ -8879,19 +8879,19 @@
         <v>392721</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>356189</v>
+        <v>357166</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>432888</v>
+        <v>429316</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1880391452792701</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1705471358036722</v>
+        <v>0.171015110402231</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2072715683845674</v>
+        <v>0.2055616157716147</v>
       </c>
     </row>
     <row r="18">
@@ -8908,19 +8908,19 @@
         <v>106273</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>84974</v>
+        <v>84970</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>132813</v>
+        <v>134873</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1017945582381901</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08139289791807741</v>
+        <v>0.08138914709232101</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1272160794478705</v>
+        <v>0.1291895253117099</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>170</v>
@@ -8929,19 +8929,19 @@
         <v>139501</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>118861</v>
+        <v>119713</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>161333</v>
+        <v>160424</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1335566868538195</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1137956119754594</v>
+        <v>0.1146114691845147</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1544579580913873</v>
+        <v>0.1535882779712489</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>252</v>
@@ -8950,19 +8950,19 @@
         <v>245774</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>215443</v>
+        <v>215888</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>278193</v>
+        <v>279715</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1176795285230347</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1031567949955503</v>
+        <v>0.1033698661007429</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.133202189823893</v>
+        <v>0.1339306720294674</v>
       </c>
     </row>
     <row r="19">
@@ -8979,19 +8979,19 @@
         <v>55085</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41480</v>
+        <v>40983</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>74772</v>
+        <v>74970</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05276359286210049</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03973149963505689</v>
+        <v>0.03925591783647238</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07162057433933812</v>
+        <v>0.07181020751600646</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>100</v>
@@ -9000,19 +9000,19 @@
         <v>74218</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>60930</v>
+        <v>61752</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>90762</v>
+        <v>90930</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07105505236028026</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05833385358896685</v>
+        <v>0.05912073973997084</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08689480981073201</v>
+        <v>0.08705498611785377</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>146</v>
@@ -9021,19 +9021,19 @@
         <v>129303</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>107272</v>
+        <v>108365</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>152288</v>
+        <v>151914</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.06191157202027461</v>
+        <v>0.06191157202027462</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05136286906313409</v>
+        <v>0.05188638651255394</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07291717258972479</v>
+        <v>0.07273832215217556</v>
       </c>
     </row>
     <row r="20">
@@ -9050,19 +9050,19 @@
         <v>646521</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>612476</v>
+        <v>612970</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>682284</v>
+        <v>679087</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6192748943508185</v>
+        <v>0.6192748943508184</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5866652396262123</v>
+        <v>0.5871383342253698</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6535311222793723</v>
+        <v>0.6504692624220865</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1006</v>
@@ -9071,19 +9071,19 @@
         <v>665139</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>637065</v>
+        <v>635396</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>692537</v>
+        <v>691526</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6367957084289669</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6099176968109719</v>
+        <v>0.6083200803175656</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6630264461990284</v>
+        <v>0.6620586864074014</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1692</v>
@@ -9092,19 +9092,19 @@
         <v>1311659</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1258841</v>
+        <v>1266343</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1352672</v>
+        <v>1353827</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6280374560281464</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6027472503595924</v>
+        <v>0.6063393370510578</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6476747823583244</v>
+        <v>0.6482277879376888</v>
       </c>
     </row>
     <row r="21">
@@ -9196,19 +9196,19 @@
         <v>20223</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12214</v>
+        <v>11948</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34918</v>
+        <v>32550</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02084222877680809</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01258804790567182</v>
+        <v>0.01231432339781562</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03598737448234526</v>
+        <v>0.03354688756379286</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -9217,19 +9217,19 @@
         <v>7693</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4036</v>
+        <v>3975</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13354</v>
+        <v>13381</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.008519757952416759</v>
+        <v>0.008519757952416756</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.004469506646477898</v>
+        <v>0.004401486111883555</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01478842335013484</v>
+        <v>0.01481805099471038</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>29</v>
@@ -9238,19 +9238,19 @@
         <v>27916</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18751</v>
+        <v>18982</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42304</v>
+        <v>42449</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01490233026412924</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01000947092971613</v>
+        <v>0.01013281798684936</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02258299296957587</v>
+        <v>0.02266034164200261</v>
       </c>
     </row>
     <row r="23">
@@ -9267,19 +9267,19 @@
         <v>291460</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>263220</v>
+        <v>262764</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>326669</v>
+        <v>326512</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3003849563464229</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2712801274414574</v>
+        <v>0.2708109837127232</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3366729323096579</v>
+        <v>0.336511094081782</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>338</v>
@@ -9288,19 +9288,19 @@
         <v>208102</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>185997</v>
+        <v>186702</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>229485</v>
+        <v>231564</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2304585454943168</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2059792395630683</v>
+        <v>0.2067591944283038</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2541386314088264</v>
+        <v>0.2564410920443959</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>617</v>
@@ -9309,19 +9309,19 @@
         <v>499562</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>464178</v>
+        <v>459473</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>536105</v>
+        <v>541393</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2666777729627761</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2477889670707485</v>
+        <v>0.2452774933892043</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2861854187537209</v>
+        <v>0.2890083580191777</v>
       </c>
     </row>
     <row r="24">
@@ -9338,19 +9338,19 @@
         <v>96282</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>75861</v>
+        <v>75285</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>119492</v>
+        <v>121510</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.09923052015255183</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07818384428171711</v>
+        <v>0.07759057613858775</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1231514789294357</v>
+        <v>0.1252312612389585</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>154</v>
@@ -9359,19 +9359,19 @@
         <v>121364</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>103292</v>
+        <v>103114</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>141648</v>
+        <v>141119</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1344024549545698</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1143886974513891</v>
+        <v>0.1141917256546016</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1568650063774324</v>
+        <v>0.1562789880634004</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>237</v>
@@ -9380,19 +9380,19 @@
         <v>217646</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>191299</v>
+        <v>192927</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>247805</v>
+        <v>251974</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1161847273238123</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1021199432061211</v>
+        <v>0.1029887755318943</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1322844135359277</v>
+        <v>0.1345099034074443</v>
       </c>
     </row>
     <row r="25">
@@ -9409,19 +9409,19 @@
         <v>58974</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>45392</v>
+        <v>45549</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>77351</v>
+        <v>75882</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06078003564683951</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04678214519791986</v>
+        <v>0.04694369395018917</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0797195644787332</v>
+        <v>0.07820604772838861</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>109</v>
@@ -9430,19 +9430,19 @@
         <v>77324</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>64482</v>
+        <v>64547</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>92951</v>
+        <v>91168</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08563142666080939</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07140894983709575</v>
+        <v>0.07148144597578522</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1029367221781089</v>
+        <v>0.1009621846475219</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>166</v>
@@ -9451,19 +9451,19 @@
         <v>136298</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>116803</v>
+        <v>115288</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>158622</v>
+        <v>157882</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.07275934909992463</v>
+        <v>0.07275934909992464</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06235201513348612</v>
+        <v>0.06154371564550276</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08467636228097586</v>
+        <v>0.08428107915779592</v>
       </c>
     </row>
     <row r="26">
@@ -9480,19 +9480,19 @@
         <v>503348</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>469113</v>
+        <v>468472</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>537760</v>
+        <v>537734</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5187622590773776</v>
+        <v>0.5187622590773777</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4834783340547392</v>
+        <v>0.4828175519841897</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5542280609947768</v>
+        <v>0.5542007144807398</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>699</v>
@@ -9501,19 +9501,19 @@
         <v>488507</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>463961</v>
+        <v>462288</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>518811</v>
+        <v>516306</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5409878149378874</v>
+        <v>0.5409878149378873</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5138049631232008</v>
+        <v>0.5119513959674677</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5745477247624398</v>
+        <v>0.5717730593265394</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1205</v>
@@ -9522,19 +9522,19 @@
         <v>991855</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>946191</v>
+        <v>942876</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1031313</v>
+        <v>1037149</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5294758203493576</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5050992787732587</v>
+        <v>0.5033295705343822</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.550539051118023</v>
+        <v>0.5536545702043216</v>
       </c>
     </row>
     <row r="27">
@@ -9626,19 +9626,19 @@
         <v>39611</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>26096</v>
+        <v>26584</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>57654</v>
+        <v>60427</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01141649221516313</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007521279420107643</v>
+        <v>0.007661747354956196</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.01661652168838636</v>
+        <v>0.01741576406606162</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>19</v>
@@ -9647,19 +9647,19 @@
         <v>12251</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>7576</v>
+        <v>7335</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>19403</v>
+        <v>19115</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.003322839901931204</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.002054881663820919</v>
+        <v>0.00198939982886578</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.005262636552184088</v>
+        <v>0.005184494318755176</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>50</v>
@@ -9668,19 +9668,19 @@
         <v>51862</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>36265</v>
+        <v>37331</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>71453</v>
+        <v>70773</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.007246801140783392</v>
+        <v>0.007246801140783391</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.005067418669841626</v>
+        <v>0.005216379849807712</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.009984304749437307</v>
+        <v>0.009889168038886039</v>
       </c>
     </row>
     <row r="29">
@@ -9697,19 +9697,19 @@
         <v>880145</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>825230</v>
+        <v>824477</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>937251</v>
+        <v>939117</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2536696217255835</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2378425478012915</v>
+        <v>0.2376254678650045</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2701283600258458</v>
+        <v>0.2706662091898401</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>807</v>
@@ -9718,19 +9718,19 @@
         <v>576806</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>535425</v>
+        <v>533152</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>620150</v>
+        <v>619656</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1564460968609525</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1452223701368512</v>
+        <v>0.1446059746775878</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1682023028504348</v>
+        <v>0.168068174407029</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1554</v>
@@ -9739,19 +9739,19 @@
         <v>1456951</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1380448</v>
+        <v>1387727</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1530893</v>
+        <v>1537877</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2035819668376867</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1928920908796633</v>
+        <v>0.193909292366376</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2139140300275693</v>
+        <v>0.214889873482129</v>
       </c>
     </row>
     <row r="30">
@@ -9768,19 +9768,19 @@
         <v>326247</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>285544</v>
+        <v>289107</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>365112</v>
+        <v>364349</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.09402881553264926</v>
+        <v>0.09402881553264929</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08229771695735762</v>
+        <v>0.08332443441538356</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.105230103217852</v>
+        <v>0.1050104447514704</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>608</v>
@@ -9789,19 +9789,19 @@
         <v>476881</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>440325</v>
+        <v>438492</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>515225</v>
+        <v>515453</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1293437796212027</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1194287263336995</v>
+        <v>0.1189315559316267</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.139743595288329</v>
+        <v>0.1398054918877789</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>883</v>
@@ -9810,19 +9810,19 @@
         <v>803129</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>748904</v>
+        <v>751765</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>860554</v>
+        <v>861570</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1122223930244012</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1046455272231393</v>
+        <v>0.1050453266251406</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1202465846752131</v>
+        <v>0.1203885706828992</v>
       </c>
     </row>
     <row r="31">
@@ -9839,19 +9839,19 @@
         <v>188733</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>162705</v>
+        <v>156382</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>223407</v>
+        <v>219298</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.0543952584585112</v>
+        <v>0.05439525845851121</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04689389535103821</v>
+        <v>0.04507141883954156</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06438880129491883</v>
+        <v>0.06320462620250578</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>351</v>
@@ -9860,19 +9860,19 @@
         <v>264914</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>239456</v>
+        <v>240154</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>292844</v>
+        <v>294897</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07185211948169354</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0649472112581064</v>
+        <v>0.06513644807396272</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07942754882780509</v>
+        <v>0.07998436727740876</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>517</v>
@@ -9881,19 +9881,19 @@
         <v>453646</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>410648</v>
+        <v>416515</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>496794</v>
+        <v>497569</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06338869118554476</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05738052095618582</v>
+        <v>0.05820031696775347</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06941776454016506</v>
+        <v>0.06952604136857563</v>
       </c>
     </row>
     <row r="32">
@@ -9910,19 +9910,19 @@
         <v>2034914</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1969207</v>
+        <v>1970528</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2098545</v>
+        <v>2098230</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.5864898120680929</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5675519561377632</v>
+        <v>0.5679327398033797</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6048291290472512</v>
+        <v>0.60473817709647</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>3508</v>
@@ -9931,19 +9931,19 @@
         <v>2356078</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2308496</v>
+        <v>2302057</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2410960</v>
+        <v>2412994</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.63903516413422</v>
+        <v>0.6390351641342201</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6261295812414629</v>
+        <v>0.624383109645012</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6539207319616395</v>
+        <v>0.6544723022752621</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5620</v>
@@ -9952,19 +9952,19 @@
         <v>4390992</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4301583</v>
+        <v>4311416</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4478084</v>
+        <v>4474578</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.613560147811584</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6010668773458921</v>
+        <v>0.6024408155658749</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6257296100979347</v>
+        <v>0.6252397402857214</v>
       </c>
     </row>
     <row r="33">
